--- a/src/loadFiles/Documents/Refs Z.xlsx
+++ b/src/loadFiles/Documents/Refs Z.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_403A31A108ECC7E3BF3DCA72683883AC1AF67CC0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="IBM" sheetId="1" r:id="rId1"/>
-    <sheet name="ISV" sheetId="2" r:id="rId2"/>
-    <sheet name="Vendeurs" sheetId="3" r:id="rId3"/>
+    <sheet name="IBM" sheetId="1" r:id="rId4"/>
+    <sheet name="ISV" sheetId="2" r:id="rId5"/>
+    <sheet name="Vendeurs" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="823">
   <si>
     <t>Clé</t>
   </si>
@@ -84,6 +73,12 @@
     <t>5655-Q49 14.1</t>
   </si>
   <si>
+    <t>5655-002 3.4</t>
+  </si>
+  <si>
+    <t>Application Support Facility for z/OS (ASF)</t>
+  </si>
+  <si>
     <t>5655-DRP 10.2.1</t>
   </si>
   <si>
@@ -246,6 +241,12 @@
     <t>5655-HP5 5.1</t>
   </si>
   <si>
+    <t>5655-T56 3.5</t>
+  </si>
+  <si>
+    <t>DB2 Log Analysis Tool for z/OS</t>
+  </si>
+  <si>
     <t>5655-DOC 11.2</t>
   </si>
   <si>
@@ -384,6 +385,9 @@
     <t>5655-Q50 14.2</t>
   </si>
   <si>
+    <t>IBM Debug for z/OS</t>
+  </si>
+  <si>
     <t>5655-Q10 13.1</t>
   </si>
   <si>
@@ -477,6 +481,12 @@
     <t>IBM High Lvl Asm MVS,VM,VSE</t>
   </si>
   <si>
+    <t>5655-N19 2.4</t>
+  </si>
+  <si>
+    <t>IBM Security zSecure Command Verifier</t>
+  </si>
+  <si>
     <t>5697-N61 2.2</t>
   </si>
   <si>
@@ -627,21 +637,36 @@
     <t>5697-N50 3.2</t>
   </si>
   <si>
+    <t>5698-WSH 9.3</t>
+  </si>
+  <si>
+    <t>IWS</t>
+  </si>
+  <si>
+    <t>IBM Workload Scheduler</t>
+  </si>
+  <si>
     <t>5655-V03 7.2</t>
   </si>
   <si>
     <t>InfoSphere Optim Move for DB2</t>
   </si>
   <si>
+    <t>5655-QCC 11.7</t>
+  </si>
+  <si>
+    <t>InfoSphere Optim Test Data Management Solution for DB2</t>
+  </si>
+  <si>
+    <t>InfoSphere Optim Test Data Management Solution for DB2 for z/OS</t>
+  </si>
+  <si>
     <t>5655-V05 7.2</t>
   </si>
   <si>
     <t>InfoSphere Optim Test Data Mgt for DB2</t>
   </si>
   <si>
-    <t>InfoSphere Optim Test Data Management Solution for DB2 for z/OS 7.2.0</t>
-  </si>
-  <si>
     <t>5655-N62 2.1</t>
   </si>
   <si>
@@ -1074,6 +1099,9 @@
     <t>5741-A09 7.1</t>
   </si>
   <si>
+    <t>5741-A09 7.2</t>
+  </si>
+  <si>
     <t>5686-VS6 9.4</t>
   </si>
   <si>
@@ -1098,6 +1126,9 @@
     <t>5655-N16 2.3</t>
   </si>
   <si>
+    <t>5655-N16 2.4</t>
+  </si>
+  <si>
     <t>5655-N17 2.2</t>
   </si>
   <si>
@@ -1110,6 +1141,9 @@
     <t>5655-N17 2.3</t>
   </si>
   <si>
+    <t>5655-N17 2.4</t>
+  </si>
+  <si>
     <t>5655-N20 2.2</t>
   </si>
   <si>
@@ -1683,6 +1717,12 @@
     <t>DVG-IMS 7.1</t>
   </si>
   <si>
+    <t>DYN-DOA 1.207</t>
+  </si>
+  <si>
+    <t>Dynatrace OneAgent</t>
+  </si>
+  <si>
     <t>EBM-RA2 2.9.8</t>
   </si>
   <si>
@@ -1731,6 +1771,15 @@
     <t>TSSO</t>
   </si>
   <si>
+    <t>IMC-PXC 10.4</t>
+  </si>
+  <si>
+    <t>PowerExchange</t>
+  </si>
+  <si>
+    <t>PowerExchange Connectors</t>
+  </si>
+  <si>
     <t>INF-HPU 3.1</t>
   </si>
   <si>
@@ -2286,6 +2335,12 @@
     <t>Dominosoftware</t>
   </si>
   <si>
+    <t>DYN</t>
+  </si>
+  <si>
+    <t>Dynatrace</t>
+  </si>
+  <si>
     <t>EPV</t>
   </si>
   <si>
@@ -2299,6 +2354,12 @@
   </si>
   <si>
     <t>IBM</t>
+  </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>Informatica</t>
   </si>
   <si>
     <t>INF</t>
@@ -2430,18 +2491,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2452,7 +2520,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -2477,54 +2548,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -2814,19 +2873,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true" style="7"/>
+    <col min="4" max="4" width="50.7109375" customWidth="true" style="0"/>
+    <col min="5" max="5" width="60.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -2953,89 +3016,89 @@
         <v>18</v>
       </c>
       <c r="B8" s="7">
-        <v>44104</v>
+        <v>43008</v>
       </c>
       <c r="C8" s="7">
-        <v>44104</v>
+        <v>43738</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44104</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44104</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43373</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44469</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43373</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44469</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
-        <v>44561</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45657</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44561</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45657</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -3044,10 +3107,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3064,38 +3127,38 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7">
-        <v>38352</v>
-      </c>
-      <c r="C15" s="7">
-        <v>39082</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7">
+        <v>38352</v>
+      </c>
+      <c r="C16" s="7">
+        <v>39082</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="7">
-        <v>44681</v>
-      </c>
-      <c r="C16" s="7">
-        <v>45412</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3105,252 +3168,252 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
+      <c r="B17" s="7">
+        <v>44681</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45412</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C20" s="7">
-        <v>45199</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44286</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45382</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="7">
-        <v>42855</v>
-      </c>
-      <c r="C22" s="7">
-        <v>43585</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7">
+        <v>42855</v>
+      </c>
+      <c r="C23" s="7">
+        <v>43585</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="7">
-        <v>43585</v>
-      </c>
-      <c r="C23" s="7">
-        <v>44316</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7">
+        <v>43585</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44316</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="7">
-        <v>41029</v>
-      </c>
-      <c r="C25" s="7">
-        <v>41759</v>
+        <v>54</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>6</v>
+      <c r="B26" s="7">
+        <v>41029</v>
+      </c>
+      <c r="C26" s="7">
+        <v>41759</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="7">
-        <v>43373</v>
-      </c>
-      <c r="C27" s="7">
-        <v>44104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>43373</v>
+      </c>
+      <c r="C28" s="7">
+        <v>44104</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
@@ -3360,79 +3423,79 @@
       <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="7">
-        <v>43220</v>
-      </c>
-      <c r="C32" s="7">
-        <v>43951</v>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="7">
+        <v>43220</v>
+      </c>
+      <c r="C33" s="7">
+        <v>43951</v>
+      </c>
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="7">
-        <v>43585</v>
-      </c>
-      <c r="C34" s="7">
-        <v>44316</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>6</v>
+      <c r="B36" s="7">
+        <v>43585</v>
+      </c>
+      <c r="C36" s="7">
+        <v>44316</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -3445,65 +3508,65 @@
       <c r="A37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>6</v>
+      <c r="B37" s="7">
+        <v>45046</v>
+      </c>
+      <c r="C37" s="7">
+        <v>45777</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="7">
-        <v>38472</v>
-      </c>
-      <c r="C40" s="7">
-        <v>39202</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
       </c>
       <c r="E40" t="s">
         <v>88</v>
@@ -3513,14 +3576,14 @@
       <c r="A41" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="7">
-        <v>41759</v>
-      </c>
-      <c r="C41" s="7">
-        <v>42490</v>
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
@@ -3531,95 +3594,95 @@
         <v>91</v>
       </c>
       <c r="B42" s="7">
-        <v>43951</v>
+        <v>38472</v>
       </c>
       <c r="C42" s="7">
-        <v>44681</v>
+        <v>39202</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="7">
+        <v>41759</v>
+      </c>
+      <c r="C43" s="7">
+        <v>42490</v>
+      </c>
+      <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43951</v>
+      </c>
+      <c r="C44" s="7">
+        <v>44681</v>
       </c>
       <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C45" s="7">
-        <v>44834</v>
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>6</v>
+      <c r="B47" s="7">
+        <v>44286</v>
+      </c>
+      <c r="C47" s="7">
+        <v>45016</v>
       </c>
       <c r="D47" t="s">
         <v>101</v>
@@ -3639,95 +3702,95 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="7">
-        <v>37986</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="7">
+        <v>37986</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" s="7">
-        <v>44316</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3735,10 +3798,10 @@
         <v>118</v>
       </c>
       <c r="B54" s="7">
-        <v>43738</v>
-      </c>
-      <c r="C54" s="7">
-        <v>44834</v>
+        <v>44316</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>119</v>
@@ -3758,24 +3821,24 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
         <v>122</v>
-      </c>
-      <c r="E55" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="7">
+        <v>43738</v>
+      </c>
+      <c r="C56" s="7">
+        <v>44834</v>
+      </c>
+      <c r="D56" t="s">
         <v>124</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>122</v>
       </c>
       <c r="E56" t="s">
         <v>125</v>
@@ -3802,39 +3865,39 @@
       <c r="A58" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="7">
-        <v>43738</v>
-      </c>
-      <c r="C58" s="7">
-        <v>44834</v>
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
         <v>130</v>
-      </c>
-      <c r="E58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>130</v>
-      </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" s="7">
         <v>43738</v>
@@ -3843,58 +3906,58 @@
         <v>44834</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
         <v>136</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="B62" s="7">
+        <v>43738</v>
+      </c>
+      <c r="C62" s="7">
+        <v>44834</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>140</v>
       </c>
       <c r="E63" t="s">
         <v>140</v>
@@ -3902,24 +3965,24 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="7">
-        <v>44681</v>
-      </c>
-      <c r="C64" s="7">
-        <v>45777</v>
+        <v>142</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>6</v>
@@ -3928,15 +3991,15 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B66" s="7">
         <v>44681</v>
@@ -3945,15 +4008,15 @@
         <v>45777</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>6</v>
@@ -3962,35 +4025,35 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>6</v>
+        <v>149</v>
+      </c>
+      <c r="B68" s="7">
+        <v>44681</v>
+      </c>
+      <c r="C68" s="7">
+        <v>45777</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="7">
-        <v>43465</v>
+        <v>151</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>6</v>
@@ -4004,16 +4067,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" s="7">
-        <v>43738</v>
-      </c>
-      <c r="C70" s="7">
-        <v>44469</v>
+        <v>152</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
         <v>153</v>
@@ -4023,11 +4086,11 @@
       <c r="A71" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="7">
-        <v>43410</v>
-      </c>
-      <c r="C71" s="7">
-        <v>44506</v>
+      <c r="B71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D71" t="s">
         <v>155</v>
@@ -4041,61 +4104,61 @@
         <v>156</v>
       </c>
       <c r="B72" s="7">
-        <v>44165</v>
-      </c>
-      <c r="C72" s="7">
-        <v>45260</v>
+        <v>43465</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>6</v>
+        <v>158</v>
+      </c>
+      <c r="B73" s="7">
+        <v>43738</v>
+      </c>
+      <c r="C73" s="7">
+        <v>44469</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>6</v>
+        <v>161</v>
+      </c>
+      <c r="B74" s="7">
+        <v>43410</v>
+      </c>
+      <c r="C74" s="7">
+        <v>44506</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>6</v>
+        <v>163</v>
+      </c>
+      <c r="B75" s="7">
+        <v>44165</v>
+      </c>
+      <c r="C75" s="7">
+        <v>45260</v>
       </c>
       <c r="D75" t="s">
         <v>162</v>
@@ -4106,7 +4169,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>6</v>
@@ -4115,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4135,12 +4198,12 @@
         <v>166</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>6</v>
@@ -4149,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
         <v>169</v>
@@ -4186,55 +4249,55 @@
         <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="7">
-        <v>44469</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>176</v>
-      </c>
-      <c r="E81" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>179</v>
-      </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
         <v>180</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>181</v>
       </c>
       <c r="E83" t="s">
         <v>181</v>
@@ -4244,8 +4307,8 @@
       <c r="A84" t="s">
         <v>182</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>6</v>
+      <c r="B84" s="7">
+        <v>44469</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>6</v>
@@ -4254,12 +4317,12 @@
         <v>183</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>6</v>
@@ -4268,15 +4331,15 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>6</v>
@@ -4285,15 +4348,15 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>6</v>
@@ -4302,24 +4365,24 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>190</v>
-      </c>
-      <c r="B88" s="7">
-        <v>42490</v>
+        <v>191</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E88" t="s">
         <v>192</v>
@@ -4339,171 +4402,171 @@
         <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
         <v>196</v>
       </c>
-      <c r="B90" s="7">
-        <v>42277</v>
-      </c>
-      <c r="C90" s="7">
-        <v>43008</v>
-      </c>
-      <c r="D90" t="s">
-        <v>197</v>
-      </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="7">
+        <v>42490</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>197</v>
-      </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>199</v>
-      </c>
-      <c r="B92" s="7">
-        <v>43738</v>
-      </c>
-      <c r="C92" s="7">
-        <v>44834</v>
+        <v>200</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B93" s="7">
-        <v>43373</v>
+        <v>42277</v>
       </c>
       <c r="C93" s="7">
-        <v>44104</v>
+        <v>43008</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="7">
-        <v>42283</v>
-      </c>
-      <c r="C94" s="7">
-        <v>43014</v>
-      </c>
-      <c r="D94" t="s">
-        <v>205</v>
-      </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="7">
+        <v>44316</v>
+      </c>
+      <c r="C95" s="7">
+        <v>45412</v>
+      </c>
+      <c r="D95" t="s">
         <v>207</v>
       </c>
-      <c r="B95" s="7">
-        <v>44286</v>
-      </c>
-      <c r="C95" s="7">
-        <v>45016</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>208</v>
-      </c>
-      <c r="E95" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" s="7">
         <v>43738</v>
       </c>
       <c r="C96" s="7">
-        <v>44469</v>
+        <v>44834</v>
       </c>
       <c r="D96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" t="s">
         <v>213</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>214</v>
-      </c>
-      <c r="E97" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B98" s="7">
-        <v>43951</v>
+        <v>43373</v>
       </c>
       <c r="C98" s="7">
-        <v>45046</v>
+        <v>44104</v>
       </c>
       <c r="D98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E98" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B99" s="7">
-        <v>44469</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>6</v>
+        <v>42283</v>
+      </c>
+      <c r="C99" s="7">
+        <v>43014</v>
       </c>
       <c r="D99" t="s">
         <v>217</v>
@@ -4514,41 +4577,41 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="7">
+        <v>44286</v>
+      </c>
+      <c r="C100" s="7">
+        <v>45016</v>
+      </c>
+      <c r="D100" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>217</v>
-      </c>
       <c r="E100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>6</v>
+        <v>222</v>
+      </c>
+      <c r="B101" s="7">
+        <v>43738</v>
+      </c>
+      <c r="C101" s="7">
+        <v>44469</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
@@ -4557,44 +4620,44 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>6</v>
+        <v>228</v>
+      </c>
+      <c r="B103" s="7">
+        <v>43951</v>
+      </c>
+      <c r="C103" s="7">
+        <v>45046</v>
       </c>
       <c r="D103" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="7">
+        <v>44469</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>230</v>
-      </c>
-      <c r="E104" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4608,15 +4671,15 @@
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E105" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>6</v>
@@ -4625,15 +4688,15 @@
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E106" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>6</v>
@@ -4645,52 +4708,52 @@
         <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" t="s">
         <v>240</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s">
-        <v>241</v>
-      </c>
-      <c r="E108" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" t="s">
         <v>243</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C110" s="7">
-        <v>44834</v>
+      <c r="B110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>245</v>
@@ -4710,32 +4773,32 @@
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E111" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
         <v>248</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>249</v>
-      </c>
       <c r="E112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>6</v>
@@ -4744,75 +4807,75 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
         <v>253</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>254</v>
-      </c>
-      <c r="E114" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>256</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>6</v>
+      <c r="B115" s="7">
+        <v>44104</v>
+      </c>
+      <c r="C115" s="7">
+        <v>44834</v>
       </c>
       <c r="D115" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>257</v>
+      </c>
+      <c r="E116" t="s">
         <v>258</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" t="s">
-        <v>259</v>
-      </c>
-      <c r="E116" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
         <v>261</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" t="s">
-        <v>259</v>
       </c>
       <c r="E117" t="s">
         <v>262</v>
@@ -4829,24 +4892,24 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118" t="s">
         <v>264</v>
-      </c>
-      <c r="E118" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
         <v>266</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>264</v>
       </c>
       <c r="E119" t="s">
         <v>267</v>
@@ -4863,24 +4926,24 @@
         <v>6</v>
       </c>
       <c r="D120" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" t="s">
         <v>269</v>
-      </c>
-      <c r="E120" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
         <v>271</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" t="s">
-        <v>269</v>
       </c>
       <c r="E121" t="s">
         <v>272</v>
@@ -4897,7 +4960,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E122" t="s">
         <v>274</v>
@@ -4907,11 +4970,11 @@
       <c r="A123" t="s">
         <v>275</v>
       </c>
-      <c r="B123" s="7">
-        <v>40086</v>
-      </c>
-      <c r="C123" s="7">
-        <v>40816</v>
+      <c r="B123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D123" t="s">
         <v>276</v>
@@ -4924,11 +4987,11 @@
       <c r="A124" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="7">
-        <v>43951</v>
-      </c>
-      <c r="C124" s="7">
-        <v>45046</v>
+      <c r="B124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>276</v>
@@ -4948,41 +5011,41 @@
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E125" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
         <v>281</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" t="s">
-        <v>282</v>
-      </c>
       <c r="E126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>284</v>
-      </c>
-      <c r="B127" s="7">
-        <v>43738</v>
-      </c>
-      <c r="C127" s="7">
-        <v>44834</v>
+        <v>285</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E127" t="s">
         <v>286</v>
@@ -4993,61 +5056,61 @@
         <v>287</v>
       </c>
       <c r="B128" s="7">
-        <v>44926</v>
+        <v>40086</v>
       </c>
       <c r="C128" s="7">
-        <v>46022</v>
+        <v>40816</v>
       </c>
       <c r="D128" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E128" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
+        <v>290</v>
+      </c>
+      <c r="B129" s="7">
+        <v>43951</v>
+      </c>
+      <c r="C129" s="7">
+        <v>45046</v>
+      </c>
+      <c r="D129" t="s">
         <v>288</v>
       </c>
-      <c r="B129" s="7">
-        <v>42352</v>
-      </c>
-      <c r="C129" s="7">
-        <v>43083</v>
-      </c>
-      <c r="D129" t="s">
-        <v>289</v>
-      </c>
       <c r="E129" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
+        <v>292</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" t="s">
         <v>291</v>
-      </c>
-      <c r="B130" s="7">
-        <v>43373</v>
-      </c>
-      <c r="C130" s="7">
-        <v>44469</v>
-      </c>
-      <c r="D130" t="s">
-        <v>292</v>
-      </c>
-      <c r="E130" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>293</v>
       </c>
-      <c r="B131" s="7">
-        <v>43243</v>
-      </c>
-      <c r="C131" s="7">
-        <v>43974</v>
+      <c r="B131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D131" t="s">
         <v>294</v>
@@ -5060,65 +5123,65 @@
       <c r="A132" t="s">
         <v>296</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>6</v>
+      <c r="B132" s="7">
+        <v>43738</v>
+      </c>
+      <c r="C132" s="7">
+        <v>44834</v>
       </c>
       <c r="D132" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E132" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
+        <v>299</v>
+      </c>
+      <c r="B133" s="7">
+        <v>44926</v>
+      </c>
+      <c r="C133" s="7">
+        <v>46022</v>
+      </c>
+      <c r="D133" t="s">
         <v>297</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>298</v>
-      </c>
-      <c r="E133" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>300</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>6</v>
+      <c r="B134" s="7">
+        <v>42352</v>
+      </c>
+      <c r="C134" s="7">
+        <v>43083</v>
       </c>
       <c r="D134" t="s">
         <v>301</v>
       </c>
       <c r="E134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>302</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>6</v>
+        <v>303</v>
+      </c>
+      <c r="B135" s="7">
+        <v>43373</v>
+      </c>
+      <c r="C135" s="7">
+        <v>44469</v>
       </c>
       <c r="D135" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E135" t="s">
         <v>304</v>
@@ -5128,48 +5191,48 @@
       <c r="A136" t="s">
         <v>305</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>6</v>
+      <c r="B136" s="7">
+        <v>43243</v>
+      </c>
+      <c r="C136" s="7">
+        <v>43974</v>
       </c>
       <c r="D136" t="s">
         <v>306</v>
       </c>
       <c r="E136" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137" t="s">
         <v>307</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" t="s">
-        <v>308</v>
-      </c>
-      <c r="E137" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
+        <v>309</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
         <v>310</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" t="s">
-        <v>311</v>
       </c>
       <c r="E138" t="s">
         <v>311</v>
@@ -5179,31 +5242,31 @@
       <c r="A139" t="s">
         <v>312</v>
       </c>
-      <c r="B139" s="7">
-        <v>43738</v>
-      </c>
-      <c r="C139" s="7">
-        <v>44834</v>
+      <c r="B139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D139" t="s">
         <v>313</v>
       </c>
       <c r="E139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
+        <v>314</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
         <v>315</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>313</v>
       </c>
       <c r="E140" t="s">
         <v>316</v>
@@ -5213,8 +5276,8 @@
       <c r="A141" t="s">
         <v>317</v>
       </c>
-      <c r="B141" s="7">
-        <v>44316</v>
+      <c r="B141" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>6</v>
@@ -5223,21 +5286,21 @@
         <v>318</v>
       </c>
       <c r="E141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
         <v>320</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" t="s">
-        <v>321</v>
       </c>
       <c r="E142" t="s">
         <v>321</v>
@@ -5247,11 +5310,11 @@
       <c r="A143" t="s">
         <v>322</v>
       </c>
-      <c r="B143" s="7">
-        <v>43951</v>
-      </c>
-      <c r="C143" s="7">
-        <v>45046</v>
+      <c r="B143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D143" t="s">
         <v>323</v>
@@ -5265,21 +5328,21 @@
         <v>324</v>
       </c>
       <c r="B144" s="7">
-        <v>43373</v>
+        <v>43738</v>
       </c>
       <c r="C144" s="7">
-        <v>44104</v>
+        <v>44834</v>
       </c>
       <c r="D144" t="s">
         <v>325</v>
       </c>
       <c r="E144" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>6</v>
@@ -5291,29 +5354,29 @@
         <v>325</v>
       </c>
       <c r="E145" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>327</v>
-      </c>
-      <c r="B146" s="7">
-        <v>40294</v>
-      </c>
-      <c r="C146" s="7">
-        <v>41390</v>
+        <v>329</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E146" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>6</v>
@@ -5322,49 +5385,49 @@
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E147" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>330</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>6</v>
+        <v>334</v>
+      </c>
+      <c r="B148" s="7">
+        <v>43951</v>
+      </c>
+      <c r="C148" s="7">
+        <v>45046</v>
       </c>
       <c r="D148" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E148" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>333</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>6</v>
+        <v>336</v>
+      </c>
+      <c r="B149" s="7">
+        <v>43373</v>
+      </c>
+      <c r="C149" s="7">
+        <v>44104</v>
       </c>
       <c r="D149" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E149" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>6</v>
@@ -5373,66 +5436,66 @@
         <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E150" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>336</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>6</v>
+        <v>339</v>
+      </c>
+      <c r="B151" s="7">
+        <v>40294</v>
+      </c>
+      <c r="C151" s="7">
+        <v>41390</v>
       </c>
       <c r="D151" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E151" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>337</v>
-      </c>
-      <c r="B152" s="7">
-        <v>41547</v>
-      </c>
-      <c r="C152" s="7">
-        <v>42277</v>
+        <v>341</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E152" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>338</v>
-      </c>
-      <c r="B153" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C153" s="7">
-        <v>45199</v>
+        <v>342</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E153" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>6</v>
@@ -5441,15 +5504,15 @@
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E154" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>6</v>
@@ -5458,15 +5521,15 @@
         <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E155" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>6</v>
@@ -5475,49 +5538,49 @@
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E156" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>345</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>6</v>
+        <v>349</v>
+      </c>
+      <c r="B157" s="7">
+        <v>41547</v>
+      </c>
+      <c r="C157" s="7">
+        <v>42277</v>
       </c>
       <c r="D157" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E157" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>347</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>6</v>
+        <v>350</v>
+      </c>
+      <c r="B158" s="7">
+        <v>44104</v>
+      </c>
+      <c r="C158" s="7">
+        <v>45199</v>
       </c>
       <c r="D158" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E158" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>6</v>
@@ -5526,15 +5589,15 @@
         <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E159" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>6</v>
@@ -5551,24 +5614,24 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>352</v>
-      </c>
-      <c r="B161" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C161" s="7">
-        <v>45199</v>
+        <v>354</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E161" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>6</v>
@@ -5577,24 +5640,24 @@
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E162" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>356</v>
-      </c>
-      <c r="B163" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C163" s="7">
-        <v>45199</v>
+        <v>359</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E163" t="s">
         <v>358</v>
@@ -5602,7 +5665,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>6</v>
@@ -5611,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E164" t="s">
         <v>358</v>
@@ -5619,16 +5682,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>360</v>
-      </c>
-      <c r="B165" s="7">
-        <v>44104</v>
-      </c>
-      <c r="C165" s="7">
-        <v>45199</v>
+        <v>361</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E165" t="s">
         <v>362</v>
@@ -5645,32 +5708,182 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E166" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167" s="7">
+        <v>44104</v>
+      </c>
+      <c r="C167" s="7">
+        <v>45199</v>
+      </c>
+      <c r="D167" t="s">
+        <v>366</v>
+      </c>
+      <c r="E167" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>368</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>366</v>
+      </c>
+      <c r="E168" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>369</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" s="7">
+        <v>44104</v>
+      </c>
+      <c r="C170" s="7">
+        <v>45199</v>
+      </c>
+      <c r="D170" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>371</v>
+      </c>
+      <c r="E171" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>374</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>371</v>
+      </c>
+      <c r="E172" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="7">
+        <v>44104</v>
+      </c>
+      <c r="C173" s="7">
+        <v>45199</v>
+      </c>
+      <c r="D173" t="s">
+        <v>376</v>
+      </c>
+      <c r="E173" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>378</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>376</v>
+      </c>
+      <c r="E174" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true" style="7"/>
+    <col min="4" max="4" width="50.7109375" customWidth="true" style="0"/>
+    <col min="5" max="5" width="60.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -5692,7 +5905,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -5701,15 +5914,15 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -5718,15 +5931,15 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -5735,15 +5948,15 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -5752,15 +5965,15 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -5769,15 +5982,15 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
@@ -5786,15 +5999,15 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B8" s="7">
         <v>44196</v>
@@ -5803,15 +6016,15 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -5820,15 +6033,15 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="E9" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B10" s="7">
         <v>44196</v>
@@ -5837,15 +6050,15 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -5854,15 +6067,15 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B12" s="7">
         <v>44196</v>
@@ -5871,15 +6084,15 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -5888,15 +6101,15 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -5905,15 +6118,15 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
@@ -5922,15 +6135,15 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -5939,15 +6152,15 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="E16" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B17" s="7">
         <v>44199</v>
@@ -5956,15 +6169,15 @@
         <v>44929</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="B18" s="7">
         <v>45130</v>
@@ -5973,15 +6186,15 @@
         <v>45861</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B19" s="7">
         <v>44199</v>
@@ -5990,15 +6203,15 @@
         <v>44929</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B20" s="7">
         <v>45130</v>
@@ -6007,15 +6220,15 @@
         <v>45861</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B21" s="7">
         <v>43313</v>
@@ -6024,15 +6237,15 @@
         <v>44135</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B22" s="7">
         <v>45130</v>
@@ -6041,15 +6254,15 @@
         <v>45861</v>
       </c>
       <c r="D22" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>6</v>
@@ -6058,15 +6271,15 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -6075,15 +6288,15 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B25" s="7">
         <v>43830</v>
@@ -6092,15 +6305,15 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
@@ -6109,15 +6322,15 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>6</v>
@@ -6126,15 +6339,15 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>6</v>
@@ -6143,15 +6356,15 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
@@ -6160,15 +6373,15 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="E29" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B30" s="7">
         <v>43008</v>
@@ -6177,15 +6390,15 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -6194,15 +6407,15 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E31" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B32" s="7">
         <v>37529</v>
@@ -6211,15 +6424,15 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="E32" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B33" s="7">
         <v>39263</v>
@@ -6228,15 +6441,15 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="E33" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B34" s="7">
         <v>44012</v>
@@ -6245,15 +6458,15 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E34" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>6</v>
@@ -6262,15 +6475,15 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E35" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>6</v>
@@ -6279,15 +6492,15 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E36" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
@@ -6296,15 +6509,15 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
@@ -6313,15 +6526,15 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E38" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>6</v>
@@ -6330,15 +6543,15 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B40" s="7">
         <v>44104</v>
@@ -6347,15 +6560,15 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="E40" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>6</v>
@@ -6364,15 +6577,15 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="E41" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B42" s="7">
         <v>44209</v>
@@ -6381,15 +6594,15 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E42" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="B43" s="7">
         <v>44664</v>
@@ -6398,15 +6611,15 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E43" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B44" s="7">
         <v>44209</v>
@@ -6415,15 +6628,15 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="E44" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="B45" s="7">
         <v>44209</v>
@@ -6432,15 +6645,15 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="E45" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>6</v>
@@ -6449,15 +6662,15 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="E46" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>6</v>
@@ -6466,15 +6679,15 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="E47" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>6</v>
@@ -6483,15 +6696,15 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="E48" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>6</v>
@@ -6500,15 +6713,15 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="E49" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>6</v>
@@ -6517,15 +6730,15 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="E50" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>6</v>
@@ -6534,15 +6747,15 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="E51" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>6</v>
@@ -6551,15 +6764,15 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="E52" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>6</v>
@@ -6568,15 +6781,15 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="E53" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B54" s="7">
         <v>44664</v>
@@ -6585,15 +6798,15 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E54" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>6</v>
@@ -6602,15 +6815,15 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B56" s="7">
         <v>43616</v>
@@ -6619,15 +6832,15 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E56" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B57" s="7">
         <v>44196</v>
@@ -6636,15 +6849,15 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E57" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>6</v>
@@ -6653,15 +6866,15 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E58" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B59" s="7">
         <v>42735</v>
@@ -6670,15 +6883,15 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="E59" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>6</v>
@@ -6687,15 +6900,15 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E60" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>6</v>
@@ -6704,15 +6917,15 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="E61" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>6</v>
@@ -6721,15 +6934,15 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="E62" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>6</v>
@@ -6738,15 +6951,15 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="E63" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>6</v>
@@ -6755,15 +6968,15 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="E64" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>6</v>
@@ -6772,15 +6985,15 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="E65" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>6</v>
@@ -6789,15 +7002,15 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="E66" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>6</v>
@@ -6806,15 +7019,15 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E67" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>6</v>
@@ -6823,15 +7036,15 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E68" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>6</v>
@@ -6840,15 +7053,15 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E69" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>6</v>
@@ -6857,15 +7070,15 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E70" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>6</v>
@@ -6874,15 +7087,15 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="E71" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>6</v>
@@ -6891,15 +7104,15 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="E72" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>6</v>
@@ -6908,15 +7121,15 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="E73" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>6</v>
@@ -6925,15 +7138,15 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E74" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>6</v>
@@ -6942,15 +7155,15 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="E75" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>6</v>
@@ -6959,15 +7172,15 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="E76" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>6</v>
@@ -6976,15 +7189,15 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="E77" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>6</v>
@@ -6993,15 +7206,15 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="E78" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>6</v>
@@ -7010,15 +7223,15 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="E79" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B80" s="7">
         <v>44012</v>
@@ -7027,15 +7240,15 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="E80" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>6</v>
@@ -7044,15 +7257,15 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="E81" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>6</v>
@@ -7061,15 +7274,15 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="E82" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>6</v>
@@ -7078,15 +7291,15 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E83" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>6</v>
@@ -7095,15 +7308,15 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="E84" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>6</v>
@@ -7112,15 +7325,15 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="E85" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>6</v>
@@ -7129,15 +7342,15 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="E86" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>6</v>
@@ -7146,15 +7359,15 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="E87" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>6</v>
@@ -7163,15 +7376,15 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="E88" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>6</v>
@@ -7180,15 +7393,15 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="E89" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>6</v>
@@ -7197,15 +7410,15 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="E90" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>6</v>
@@ -7214,15 +7427,15 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="E91" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>6</v>
@@ -7231,15 +7444,15 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="E92" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>6</v>
@@ -7248,15 +7461,15 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="E93" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>6</v>
@@ -7265,15 +7478,15 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="E94" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>6</v>
@@ -7282,15 +7495,15 @@
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>6</v>
@@ -7299,15 +7512,15 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="E96" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>6</v>
@@ -7316,15 +7529,15 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E97" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>6</v>
@@ -7333,15 +7546,15 @@
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E98" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>6</v>
@@ -7350,15 +7563,15 @@
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="E99" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>6</v>
@@ -7367,15 +7580,15 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="E100" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>6</v>
@@ -7384,15 +7597,15 @@
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="E101" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
@@ -7401,15 +7614,15 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="E102" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>6</v>
@@ -7418,15 +7631,15 @@
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="E103" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>6</v>
@@ -7435,15 +7648,15 @@
         <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="E104" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>6</v>
@@ -7452,100 +7665,100 @@
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="E105" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>602</v>
-      </c>
-      <c r="B106" s="7">
-        <v>45098</v>
+        <v>620</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="E106" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="E107" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>608</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>1</v>
+        <v>622</v>
+      </c>
+      <c r="B108" s="7">
+        <v>45098</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="E108" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>614</v>
-      </c>
-      <c r="B110" s="7">
-        <v>42369</v>
+        <v>628</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E110" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>6</v>
@@ -7554,117 +7767,117 @@
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="E111" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>617</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>6</v>
+        <v>634</v>
+      </c>
+      <c r="B112" s="7">
+        <v>42369</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="E112" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>620</v>
-      </c>
-      <c r="B113" s="7">
-        <v>39263</v>
+        <v>636</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E113" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>623</v>
-      </c>
-      <c r="B114" s="7">
-        <v>39263</v>
+        <v>637</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="E114" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="B115" s="7">
-        <v>43497</v>
+        <v>39263</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="E115" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>629</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>6</v>
+        <v>643</v>
+      </c>
+      <c r="B116" s="7">
+        <v>39263</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="E116" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="B117" s="7">
-        <v>43951</v>
+        <v>43497</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="E117" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>6</v>
@@ -7673,15 +7886,15 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="E118" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="B119" s="7">
         <v>43951</v>
@@ -7690,134 +7903,134 @@
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="E119" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>638</v>
-      </c>
-      <c r="B120" s="7">
-        <v>44316</v>
+        <v>654</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="E120" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>639</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>6</v>
+        <v>655</v>
+      </c>
+      <c r="B121" s="7">
+        <v>43951</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="E121" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>640</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>6</v>
+        <v>658</v>
+      </c>
+      <c r="B122" s="7">
+        <v>44316</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="E122" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>642</v>
-      </c>
-      <c r="B123" s="7">
-        <v>43951</v>
+        <v>659</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="E123" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>645</v>
-      </c>
-      <c r="B124" s="7">
-        <v>44316</v>
+        <v>660</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="E124" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>646</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>6</v>
+        <v>662</v>
+      </c>
+      <c r="B125" s="7">
+        <v>43951</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="E125" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>647</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>6</v>
+        <v>665</v>
+      </c>
+      <c r="B126" s="7">
+        <v>44316</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="E126" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>6</v>
@@ -7826,66 +8039,66 @@
         <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="E127" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>653</v>
-      </c>
-      <c r="B128" s="7">
-        <v>44500</v>
-      </c>
-      <c r="C128" s="7">
-        <v>44865</v>
+        <v>667</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="E128" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>655</v>
-      </c>
-      <c r="B129" s="7">
-        <v>44926</v>
+        <v>670</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="E129" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B130" s="7">
-        <v>44926</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>6</v>
+        <v>44500</v>
+      </c>
+      <c r="C130" s="7">
+        <v>44865</v>
       </c>
       <c r="D130" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="E130" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="B131" s="7">
         <v>44926</v>
@@ -7894,15 +8107,15 @@
         <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="E131" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="B132" s="7">
         <v>44926</v>
@@ -7911,32 +8124,32 @@
         <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="E132" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="B133" s="7">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="E133" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="B134" s="7">
         <v>44926</v>
@@ -7945,24 +8158,24 @@
         <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="E134" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="B135" s="7">
-        <v>44500</v>
+        <v>44865</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="E135" t="s">
         <v>669</v>
@@ -7970,109 +8183,109 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>670</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>6</v>
+        <v>685</v>
+      </c>
+      <c r="B136" s="7">
+        <v>44926</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="E136" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="B137" s="7">
-        <v>44926</v>
+        <v>44500</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="E137" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>674</v>
-      </c>
-      <c r="B138" s="7">
-        <v>44500</v>
-      </c>
-      <c r="C138" s="7">
-        <v>44865</v>
+        <v>690</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="E138" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>676</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>6</v>
+        <v>692</v>
+      </c>
+      <c r="B139" s="7">
+        <v>44926</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="E139" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="B140" s="7">
-        <v>44926</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>6</v>
+        <v>44500</v>
+      </c>
+      <c r="C140" s="7">
+        <v>44865</v>
       </c>
       <c r="D140" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="E140" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>679</v>
-      </c>
-      <c r="B141" s="7">
-        <v>44926</v>
+        <v>696</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="E141" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="B142" s="7">
         <v>44926</v>
@@ -8081,15 +8294,15 @@
         <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="E142" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="B143" s="7">
         <v>44926</v>
@@ -8098,66 +8311,66 @@
         <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="E143" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="B144" s="7">
-        <v>44135</v>
+        <v>44926</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="E144" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>687</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>6</v>
+        <v>703</v>
+      </c>
+      <c r="B145" s="7">
+        <v>44926</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E145" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>688</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>1</v>
+        <v>705</v>
+      </c>
+      <c r="B146" s="7">
+        <v>44135</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="E146" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>6</v>
@@ -8166,83 +8379,83 @@
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="E147" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>692</v>
-      </c>
-      <c r="B148" s="7">
-        <v>43769</v>
+        <v>708</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="E148" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>695</v>
-      </c>
-      <c r="B149" s="7">
-        <v>43769</v>
+        <v>711</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="E149" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>696</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>6</v>
+        <v>712</v>
+      </c>
+      <c r="B150" s="7">
+        <v>43769</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="E150" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>697</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>6</v>
+        <v>715</v>
+      </c>
+      <c r="B151" s="7">
+        <v>43769</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="E151" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>6</v>
@@ -8251,15 +8464,15 @@
         <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E152" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>6</v>
@@ -8268,32 +8481,32 @@
         <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="E153" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>704</v>
-      </c>
-      <c r="B154" s="7">
-        <v>43738</v>
+        <v>718</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="E154" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>6</v>
@@ -8302,32 +8515,32 @@
         <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="E155" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>708</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>6</v>
+        <v>724</v>
+      </c>
+      <c r="B156" s="7">
+        <v>43738</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="E156" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>6</v>
@@ -8336,15 +8549,15 @@
         <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="E157" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>6</v>
@@ -8353,15 +8566,15 @@
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="E158" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>6</v>
@@ -8370,15 +8583,15 @@
         <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="E159" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>6</v>
@@ -8387,15 +8600,15 @@
         <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="E160" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>6</v>
@@ -8404,15 +8617,15 @@
         <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="E161" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>6</v>
@@ -8421,15 +8634,15 @@
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="E162" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>6</v>
@@ -8438,15 +8651,15 @@
         <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="E163" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>6</v>
@@ -8455,15 +8668,15 @@
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="E164" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>6</v>
@@ -8472,352 +8685,410 @@
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="E165" t="s">
-        <v>728</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>746</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>747</v>
+      </c>
+      <c r="E166" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>749</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>747</v>
+      </c>
+      <c r="E167" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="B2" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="B5" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="B8" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="B9" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="B12" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="B13" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="B14" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c r="B15" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="B16" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="B17" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="B18" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="B19" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="B20" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="B21" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="B22" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="B23" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="B24" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="B25" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="B26" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="B27" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>693</v>
+        <v>800</v>
       </c>
       <c r="B28" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="B29" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="B30" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="B31" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="B33" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="B34" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="B35" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="B36" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="B37" t="s">
-        <v>798</v>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>819</v>
+      </c>
+      <c r="B38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>821</v>
+      </c>
+      <c r="B39" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7fb55a347c7e86a58cb69ad208553b6d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06f3d554f71f768c65e0c3b6df59b411" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dac29f0e060d0d9828bc78d020c13bcb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b817bc98c5af290a1e56b966b0fd4bba" ns2:_="">
     <xsd:import namespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -8827,6 +9098,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8845,6 +9120,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8947,14 +9244,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D50155F-044E-48EB-A146-70AFE5321E77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F22E51E-2395-4F57-826F-1E99D3F87E44}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69818E6C-0421-4A4E-865B-1D7D676AC2A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1B355F-4D77-43E9-9352-C6D529F42476}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D61512-951D-4C9F-AC43-D4E036F81815}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D866EA1-0F03-4AA2-AADD-F78E9021E172}"/>
 </file>